--- a/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\WMS\temp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00903929-AA93-4157-BB20-10199A733F9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E9603-7BD8-403B-A6CE-8C49DE37EE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -96,18 +96,12 @@
     <t>Danh sách hàng hóa trong các giao dịch từ ${startDate} - ${endDate}</t>
   </si>
   <si>
-    <t>Ngày thực hiện</t>
-  </si>
-  <si>
     <t>Người thực hiện</t>
   </si>
   <si>
     <t>Tình trạng hàng hóa</t>
   </si>
   <si>
-    <t>Trọng lượng(Kg)</t>
-  </si>
-  <si>
     <t>Thể tích(m3)</t>
   </si>
   <si>
@@ -117,28 +111,18 @@
     <t>${item.volume}</t>
   </si>
   <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Ngày sản xuất</t>
-  </si>
-  <si>
-    <t>Hạn sử dụng</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>${item.cellCode}</t>
-  </si>
-  <si>
-    <t>${item.produceDate}</t>
-  </si>
-  <si>
-    <t>${item.expireDate}</t>
-  </si>
-  <si>
-    <t>${item.description}</t>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>${item.serial}</t>
+  </si>
+  <si>
+    <t>Ngày
+ thực hiện</t>
+  </si>
+  <si>
+    <t>Trọng lượng
+(Kg)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,23 +226,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,13 +278,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -627,32 +593,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -669,9 +634,8 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -688,9 +652,8 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -703,68 +666,56 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,47 +728,38 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,20 +770,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00903929-AA93-4157-BB20-10199A733F9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBE379-73AC-4835-9E39-6F0339F6E721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,19 +299,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -630,7 +627,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,56 +636,59 @@
     <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
     <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -709,38 +709,38 @@
       <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -752,17 +752,17 @@
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -783,38 +783,38 @@
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -826,22 +826,22 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBE379-73AC-4835-9E39-6F0339F6E721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C9620B-7C3D-4F10-B7F2-5FA66A124C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
     <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" style="5" customWidth="1"/>

--- a/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C9620B-7C3D-4F10-B7F2-5FA66A124C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5135F7A-6F9B-4A39-89A3-52B30C5AF4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>${item.unitName}</t>
   </si>
   <si>
-    <t>${item.amount}</t>
-  </si>
-  <si>
     <t>${item.stockTransCreatedDate}</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>Thể tích(m3)</t>
   </si>
   <si>
-    <t>${item.weight}</t>
-  </si>
-  <si>
-    <t>${item.volume}</t>
-  </si>
-  <si>
     <t>Vị trí</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>${item.description}</t>
+  </si>
+  <si>
+    <t>${item.amountValueReport}</t>
+  </si>
+  <si>
+    <t>${item.weightReport}</t>
+  </si>
+  <si>
+    <t>${item.volumeReport}</t>
   </si>
 </sst>
 </file>
@@ -293,12 +293,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,6 +302,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,24 +626,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
     <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.7265625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.7265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.7265625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="5" customWidth="1"/>
     <col min="15" max="15" width="10.54296875" style="5" customWidth="1"/>
     <col min="16" max="16" width="10.6328125" style="5" customWidth="1"/>
     <col min="17" max="17" width="10.08984375" customWidth="1"/>
@@ -651,44 +651,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -704,13 +704,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>7</v>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>9</v>
@@ -728,19 +728,19 @@
         <v>10</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -752,7 +752,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -762,29 +762,29 @@
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>11</v>
@@ -793,28 +793,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>29</v>
+      <c r="M5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -836,7 +836,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5135F7A-6F9B-4A39-89A3-52B30C5AF4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5B21C-2F9D-4BF5-BE41-31B432649970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>${item.volumeReport}</t>
+  </si>
+  <si>
+    <t>Lý do</t>
+  </si>
+  <si>
+    <t>Mã yêu cầu</t>
+  </si>
+  <si>
+    <t>Đối tác cung cấp</t>
+  </si>
+  <si>
+    <t>Khách hàng nhận</t>
+  </si>
+  <si>
+    <t>${item.orderCode}</t>
+  </si>
+  <si>
+    <t>${item.reasonName}</t>
+  </si>
+  <si>
+    <t>${item.partnerName}</t>
+  </si>
+  <si>
+    <t>${item.receiveName}</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>${item.serial}</t>
+  </si>
+  <si>
+    <t>${item.content}</t>
   </si>
 </sst>
 </file>
@@ -196,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,21 +335,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,224 +672,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.6328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9.7265625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="30.7265625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.26953125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.08984375" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="L3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="O3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="P3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="Q3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="R3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="S3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="T3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="V3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="13"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="Q5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="R5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="V5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="13"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
